--- a/3 Statistics/Statistics - 1. Mean Median Mode.xlsx
+++ b/3 Statistics/Statistics - 1. Mean Median Mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\5. Statistics\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4879da3f5c650214/Desktop/Excel-for-Data-Analysis - Copy/3 Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CBF1B0-44E5-41E3-81BE-402978D5820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B3CBF1B0-44E5-41E3-81BE-402978D5820E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68865F44-3333-4A4D-BB3E-4572D4312847}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723FA5D7-AF44-436D-A3FD-3E79DCE0C672}">
   <dimension ref="A1:N710"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -904,7 +904,10 @@
       <c r="M6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2">
+        <f>ROUND(AVERAGE($G:$G), 2)</f>
+        <v>106765.37</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -943,7 +946,10 @@
       <c r="M7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="2">
+        <f>ROUND(MEDIAN($G:$G), 2)</f>
+        <v>105000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -982,7 +988,10 @@
       <c r="M8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <f>MODE($G:$G)</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
